--- a/pred_ohlcv/54/2019-10-20 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-20 TRX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>18.5</v>
       </c>
       <c r="F2" t="n">
-        <v>82487.69010000001</v>
+        <v>7699.5378</v>
       </c>
       <c r="G2" t="n">
-        <v>18.4983333333334</v>
+        <v>18.50000000000007</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>18.5</v>
       </c>
       <c r="F3" t="n">
-        <v>37291.1009</v>
+        <v>82487.69010000001</v>
       </c>
       <c r="G3" t="n">
-        <v>18.49666666666674</v>
+        <v>18.4983333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>18.5</v>
       </c>
       <c r="F4" t="n">
-        <v>5870</v>
+        <v>37291.1009</v>
       </c>
       <c r="G4" t="n">
-        <v>18.49500000000007</v>
+        <v>18.49666666666674</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>18.5</v>
       </c>
       <c r="F5" t="n">
-        <v>9412.999900000001</v>
+        <v>5870</v>
       </c>
       <c r="G5" t="n">
-        <v>18.49166666666674</v>
+        <v>18.49500000000007</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="E6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="F6" t="n">
-        <v>19037.7805</v>
+        <v>9412.999900000001</v>
       </c>
       <c r="G6" t="n">
-        <v>18.48666666666674</v>
+        <v>18.49166666666674</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>18.4</v>
       </c>
       <c r="F7" t="n">
-        <v>147061.284</v>
+        <v>19037.7805</v>
       </c>
       <c r="G7" t="n">
-        <v>18.48166666666674</v>
+        <v>18.48666666666674</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>18.4</v>
       </c>
       <c r="F8" t="n">
-        <v>52000</v>
+        <v>147061.284</v>
       </c>
       <c r="G8" t="n">
-        <v>18.47833333333341</v>
+        <v>18.48166666666674</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>18.4</v>
       </c>
       <c r="F9" t="n">
-        <v>169326</v>
+        <v>52000</v>
       </c>
       <c r="G9" t="n">
-        <v>18.47333333333341</v>
+        <v>18.47833333333341</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>18.4</v>
       </c>
       <c r="F10" t="n">
-        <v>22980.9021</v>
+        <v>169326</v>
       </c>
       <c r="G10" t="n">
-        <v>18.47000000000008</v>
+        <v>18.47333333333341</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F11" t="n">
-        <v>5100</v>
+        <v>22980.9021</v>
       </c>
       <c r="G11" t="n">
-        <v>18.46500000000008</v>
+        <v>18.47000000000008</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F12" t="n">
-        <v>172858.4239</v>
+        <v>5100</v>
       </c>
       <c r="G12" t="n">
-        <v>18.46166666666675</v>
+        <v>18.46500000000008</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>18.4</v>
       </c>
       <c r="F13" t="n">
-        <v>99691.1681</v>
+        <v>172858.4239</v>
       </c>
       <c r="G13" t="n">
-        <v>18.45833333333342</v>
+        <v>18.46166666666675</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F14" t="n">
-        <v>727172.068</v>
+        <v>99691.1681</v>
       </c>
       <c r="G14" t="n">
-        <v>18.45333333333342</v>
+        <v>18.45833333333342</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>18.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2192101.9082</v>
+        <v>727172.068</v>
       </c>
       <c r="G15" t="n">
-        <v>18.44833333333342</v>
+        <v>18.45333333333342</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -784,12 +831,15 @@
         <v>18.3</v>
       </c>
       <c r="F16" t="n">
-        <v>194420.7002</v>
+        <v>2192101.9082</v>
       </c>
       <c r="G16" t="n">
-        <v>18.44500000000009</v>
+        <v>18.44833333333342</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,18 +854,21 @@
         <v>18.3</v>
       </c>
       <c r="D17" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E17" t="n">
         <v>18.3</v>
       </c>
       <c r="F17" t="n">
-        <v>317409.6116</v>
+        <v>194420.7002</v>
       </c>
       <c r="G17" t="n">
-        <v>18.44166666666676</v>
+        <v>18.44500000000009</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -830,18 +883,21 @@
         <v>18.3</v>
       </c>
       <c r="D18" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E18" t="n">
         <v>18.3</v>
       </c>
       <c r="F18" t="n">
-        <v>8627.026900000001</v>
+        <v>317409.6116</v>
       </c>
       <c r="G18" t="n">
-        <v>18.43833333333342</v>
+        <v>18.44166666666676</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>18.3</v>
       </c>
       <c r="F19" t="n">
-        <v>24146.0857</v>
+        <v>8627.026900000001</v>
       </c>
       <c r="G19" t="n">
-        <v>18.43500000000008</v>
+        <v>18.43833333333342</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>18.3</v>
       </c>
       <c r="F20" t="n">
-        <v>126455.4644</v>
+        <v>24146.0857</v>
       </c>
       <c r="G20" t="n">
-        <v>18.43166666666675</v>
+        <v>18.43500000000008</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -908,18 +970,21 @@
         <v>18.3</v>
       </c>
       <c r="D21" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E21" t="n">
         <v>18.3</v>
       </c>
       <c r="F21" t="n">
-        <v>314915.374</v>
+        <v>126455.4644</v>
       </c>
       <c r="G21" t="n">
-        <v>18.42833333333342</v>
+        <v>18.43166666666675</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -934,18 +999,21 @@
         <v>18.3</v>
       </c>
       <c r="D22" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E22" t="n">
         <v>18.3</v>
       </c>
       <c r="F22" t="n">
-        <v>53920</v>
+        <v>314915.374</v>
       </c>
       <c r="G22" t="n">
-        <v>18.42500000000008</v>
+        <v>18.42833333333342</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>18.3</v>
       </c>
       <c r="F23" t="n">
-        <v>11108.0228</v>
+        <v>53920</v>
       </c>
       <c r="G23" t="n">
-        <v>18.42166666666675</v>
+        <v>18.42500000000008</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F24" t="n">
-        <v>95208.9999</v>
+        <v>11108.0228</v>
       </c>
       <c r="G24" t="n">
-        <v>18.42000000000008</v>
+        <v>18.42166666666675</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F25" t="n">
-        <v>22022.1446</v>
+        <v>95208.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>18.41833333333341</v>
+        <v>18.42000000000008</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>18.3</v>
       </c>
       <c r="F26" t="n">
-        <v>83663.34359999999</v>
+        <v>22022.1446</v>
       </c>
       <c r="G26" t="n">
-        <v>18.41666666666675</v>
+        <v>18.41833333333341</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F27" t="n">
-        <v>174132.52</v>
+        <v>83663.34359999999</v>
       </c>
       <c r="G27" t="n">
-        <v>18.41500000000008</v>
+        <v>18.41666666666675</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>18.4</v>
       </c>
       <c r="F28" t="n">
-        <v>27967.1016</v>
+        <v>174132.52</v>
       </c>
       <c r="G28" t="n">
-        <v>18.41333333333342</v>
+        <v>18.41500000000008</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>18.4</v>
       </c>
       <c r="F29" t="n">
-        <v>45384.3498</v>
+        <v>27967.1016</v>
       </c>
       <c r="G29" t="n">
         <v>18.41333333333342</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>18.4</v>
       </c>
       <c r="C30" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="D30" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="E30" t="n">
         <v>18.4</v>
       </c>
       <c r="F30" t="n">
-        <v>432871.41081081</v>
+        <v>45384.3498</v>
       </c>
       <c r="G30" t="n">
-        <v>18.41500000000008</v>
+        <v>18.41333333333342</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>18.4</v>
       </c>
       <c r="C31" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="D31" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="E31" t="n">
         <v>18.4</v>
       </c>
       <c r="F31" t="n">
-        <v>48210.5604</v>
+        <v>432871.41081081</v>
       </c>
       <c r="G31" t="n">
         <v>18.41500000000008</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>18.4</v>
       </c>
       <c r="F32" t="n">
-        <v>4345.8866</v>
+        <v>48210.5604</v>
       </c>
       <c r="G32" t="n">
         <v>18.41500000000008</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="C33" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="D33" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="E33" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="F33" t="n">
-        <v>10789.1891</v>
+        <v>4345.8866</v>
       </c>
       <c r="G33" t="n">
-        <v>18.41666666666675</v>
+        <v>18.41500000000008</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="C34" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="D34" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="E34" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1620.72</v>
+        <v>10789.1891</v>
       </c>
       <c r="G34" t="n">
         <v>18.41666666666675</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>18.4</v>
       </c>
       <c r="F35" t="n">
-        <v>2283</v>
+        <v>1620.72</v>
       </c>
       <c r="G35" t="n">
         <v>18.41666666666675</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C36" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D36" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E36" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F36" t="n">
-        <v>151.8817</v>
+        <v>2283</v>
       </c>
       <c r="G36" t="n">
         <v>18.41666666666675</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C37" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D37" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E37" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F37" t="n">
-        <v>106780.9999</v>
+        <v>151.8817</v>
       </c>
       <c r="G37" t="n">
         <v>18.41666666666675</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>18.4</v>
       </c>
       <c r="F38" t="n">
-        <v>62547.7153</v>
+        <v>106780.9999</v>
       </c>
       <c r="G38" t="n">
         <v>18.41666666666675</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F39" t="n">
-        <v>112298.2655</v>
+        <v>62547.7153</v>
       </c>
       <c r="G39" t="n">
-        <v>18.41500000000008</v>
+        <v>18.41666666666675</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C40" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D40" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E40" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F40" t="n">
-        <v>54.6467</v>
+        <v>112298.2655</v>
       </c>
       <c r="G40" t="n">
-        <v>18.41333333333341</v>
+        <v>18.41500000000008</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>18.4</v>
       </c>
       <c r="F41" t="n">
-        <v>51.4673</v>
+        <v>54.6467</v>
       </c>
       <c r="G41" t="n">
-        <v>18.41166666666675</v>
+        <v>18.41333333333341</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>18.4</v>
       </c>
       <c r="F42" t="n">
-        <v>27.0652</v>
+        <v>51.4673</v>
       </c>
       <c r="G42" t="n">
         <v>18.41166666666675</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C43" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D43" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E43" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F43" t="n">
-        <v>82041.14999999999</v>
+        <v>27.0652</v>
       </c>
       <c r="G43" t="n">
-        <v>18.41000000000008</v>
+        <v>18.41166666666675</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C44" t="n">
         <v>18.3</v>
       </c>
       <c r="D44" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E44" t="n">
         <v>18.3</v>
       </c>
       <c r="F44" t="n">
-        <v>49648.9015</v>
+        <v>82041.14999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>18.40833333333341</v>
+        <v>18.41000000000008</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>18.4</v>
       </c>
       <c r="C45" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D45" t="n">
         <v>18.4</v>
       </c>
       <c r="E45" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F45" t="n">
-        <v>977.3913</v>
+        <v>49648.9015</v>
       </c>
       <c r="G45" t="n">
         <v>18.40833333333341</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1555,21 +1692,24 @@
         <v>18.4</v>
       </c>
       <c r="C46" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D46" t="n">
         <v>18.4</v>
       </c>
       <c r="E46" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F46" t="n">
-        <v>1847.4243</v>
+        <v>977.3913</v>
       </c>
       <c r="G46" t="n">
-        <v>18.40666666666674</v>
+        <v>18.40833333333341</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C47" t="n">
         <v>18.3</v>
       </c>
       <c r="D47" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E47" t="n">
         <v>18.3</v>
       </c>
       <c r="F47" t="n">
-        <v>1471.6</v>
+        <v>1847.4243</v>
       </c>
       <c r="G47" t="n">
-        <v>18.40333333333341</v>
+        <v>18.40666666666674</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>18.3</v>
       </c>
       <c r="F48" t="n">
-        <v>4599.8252</v>
+        <v>1471.6</v>
       </c>
       <c r="G48" t="n">
-        <v>18.40000000000007</v>
+        <v>18.40333333333341</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C49" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D49" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E49" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F49" t="n">
-        <v>543.4782</v>
+        <v>4599.8252</v>
       </c>
       <c r="G49" t="n">
-        <v>18.39833333333341</v>
+        <v>18.40000000000007</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C50" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D50" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E50" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F50" t="n">
-        <v>54.8625</v>
+        <v>543.4782</v>
       </c>
       <c r="G50" t="n">
-        <v>18.39500000000007</v>
+        <v>18.39833333333341</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>18.3</v>
       </c>
       <c r="F51" t="n">
-        <v>155</v>
+        <v>54.8625</v>
       </c>
       <c r="G51" t="n">
-        <v>18.39166666666674</v>
+        <v>18.39500000000007</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>18.3</v>
       </c>
       <c r="C52" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D52" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E52" t="n">
         <v>18.3</v>
       </c>
       <c r="F52" t="n">
-        <v>36854.3465</v>
+        <v>155</v>
       </c>
       <c r="G52" t="n">
-        <v>18.39000000000008</v>
+        <v>18.39166666666674</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>18.3</v>
       </c>
       <c r="C53" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D53" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E53" t="n">
         <v>18.3</v>
       </c>
       <c r="F53" t="n">
-        <v>2359.5</v>
+        <v>36854.3465</v>
       </c>
       <c r="G53" t="n">
-        <v>18.38500000000007</v>
+        <v>18.39000000000008</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C54" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D54" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E54" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F54" t="n">
-        <v>17.8532</v>
+        <v>2359.5</v>
       </c>
       <c r="G54" t="n">
-        <v>18.38333333333341</v>
+        <v>18.38500000000007</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C55" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D55" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E55" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F55" t="n">
-        <v>1544.33</v>
+        <v>17.8532</v>
       </c>
       <c r="G55" t="n">
-        <v>18.38000000000007</v>
+        <v>18.38333333333341</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C56" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D56" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E56" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F56" t="n">
-        <v>10869.56521739</v>
+        <v>1544.33</v>
       </c>
       <c r="G56" t="n">
-        <v>18.37833333333341</v>
+        <v>18.38000000000007</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C57" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D57" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E57" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F57" t="n">
-        <v>1544.92</v>
+        <v>10869.56521739</v>
       </c>
       <c r="G57" t="n">
-        <v>18.37500000000007</v>
+        <v>18.37833333333341</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>18.3</v>
       </c>
       <c r="F58" t="n">
-        <v>24663.4615</v>
+        <v>1544.92</v>
       </c>
       <c r="G58" t="n">
-        <v>18.37000000000008</v>
+        <v>18.37500000000007</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C59" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D59" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E59" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F59" t="n">
-        <v>534.7593000000001</v>
+        <v>24663.4615</v>
       </c>
       <c r="G59" t="n">
-        <v>18.36833333333341</v>
+        <v>18.37000000000008</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C60" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D60" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E60" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F60" t="n">
-        <v>1106.9043</v>
+        <v>534.7593000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>18.36666666666674</v>
+        <v>18.36833333333341</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C61" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D61" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E61" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F61" t="n">
-        <v>12794.1304</v>
+        <v>1106.9043</v>
       </c>
       <c r="G61" t="n">
-        <v>18.36500000000008</v>
+        <v>18.36666666666674</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>18.4</v>
       </c>
       <c r="F62" t="n">
-        <v>554409.5662</v>
+        <v>12794.1304</v>
       </c>
       <c r="G62" t="n">
-        <v>18.36333333333341</v>
+        <v>18.36500000000008</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>18.4</v>
       </c>
       <c r="F63" t="n">
-        <v>203854.6125</v>
+        <v>554409.5662</v>
       </c>
       <c r="G63" t="n">
-        <v>18.36166666666675</v>
+        <v>18.36333333333341</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>18.4</v>
       </c>
       <c r="F64" t="n">
-        <v>36670</v>
+        <v>203854.6125</v>
       </c>
       <c r="G64" t="n">
-        <v>18.36000000000008</v>
+        <v>18.36166666666675</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>18.4</v>
       </c>
       <c r="F65" t="n">
-        <v>3050</v>
+        <v>36670</v>
       </c>
       <c r="G65" t="n">
-        <v>18.35833333333342</v>
+        <v>18.36000000000008</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>18.4</v>
       </c>
       <c r="F66" t="n">
-        <v>91383</v>
+        <v>3050</v>
       </c>
       <c r="G66" t="n">
         <v>18.35833333333342</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>18.4</v>
       </c>
       <c r="C67" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D67" t="n">
         <v>18.4</v>
       </c>
       <c r="E67" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F67" t="n">
-        <v>300.652</v>
+        <v>91383</v>
       </c>
       <c r="G67" t="n">
-        <v>18.35666666666675</v>
+        <v>18.35833333333342</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,10 +2327,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C68" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D68" t="n">
         <v>18.4</v>
@@ -2136,12 +2339,15 @@
         <v>18.3</v>
       </c>
       <c r="F68" t="n">
-        <v>349192.43</v>
+        <v>300.652</v>
       </c>
       <c r="G68" t="n">
         <v>18.35666666666675</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C69" t="n">
         <v>18.4</v>
@@ -2159,15 +2365,18 @@
         <v>18.4</v>
       </c>
       <c r="E69" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>349192.43</v>
       </c>
       <c r="G69" t="n">
         <v>18.35666666666675</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C70" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D70" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E70" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F70" t="n">
-        <v>7000</v>
+        <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>18.35500000000008</v>
+        <v>18.35666666666675</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>18.3</v>
       </c>
       <c r="F71" t="n">
-        <v>665022.3954</v>
+        <v>7000</v>
       </c>
       <c r="G71" t="n">
         <v>18.35500000000008</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>18.3</v>
       </c>
       <c r="F72" t="n">
-        <v>278221.9264</v>
+        <v>665022.3954</v>
       </c>
       <c r="G72" t="n">
-        <v>18.35333333333341</v>
+        <v>18.35500000000008</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>18.3</v>
       </c>
       <c r="F73" t="n">
-        <v>15296.9999</v>
+        <v>278221.9264</v>
       </c>
       <c r="G73" t="n">
-        <v>18.35166666666674</v>
+        <v>18.35333333333341</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>18.3</v>
       </c>
       <c r="F74" t="n">
-        <v>13197.6502</v>
+        <v>15296.9999</v>
       </c>
       <c r="G74" t="n">
         <v>18.35166666666674</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>18.3</v>
       </c>
       <c r="F75" t="n">
-        <v>41742.164</v>
+        <v>13197.6502</v>
       </c>
       <c r="G75" t="n">
         <v>18.35166666666674</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>18.3</v>
       </c>
       <c r="F76" t="n">
-        <v>28217.9424</v>
+        <v>41742.164</v>
       </c>
       <c r="G76" t="n">
         <v>18.35166666666674</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>18.3</v>
       </c>
       <c r="F77" t="n">
-        <v>20075.8995</v>
+        <v>28217.9424</v>
       </c>
       <c r="G77" t="n">
         <v>18.35166666666674</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>18.3</v>
       </c>
       <c r="F78" t="n">
-        <v>61300</v>
+        <v>20075.8995</v>
       </c>
       <c r="G78" t="n">
         <v>18.35166666666674</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>18.3</v>
       </c>
       <c r="F79" t="n">
-        <v>90392</v>
+        <v>61300</v>
       </c>
       <c r="G79" t="n">
         <v>18.35166666666674</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>18.3</v>
       </c>
       <c r="F80" t="n">
-        <v>10211.6939</v>
+        <v>90392</v>
       </c>
       <c r="G80" t="n">
         <v>18.35166666666674</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>18.3</v>
       </c>
       <c r="C81" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="D81" t="n">
         <v>18.3</v>
       </c>
       <c r="E81" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>10211.6939</v>
       </c>
       <c r="G81" t="n">
-        <v>18.35000000000008</v>
+        <v>18.35166666666674</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,10 +2733,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="C82" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="D82" t="n">
         <v>18.3</v>
@@ -2500,12 +2745,15 @@
         <v>18.2</v>
       </c>
       <c r="F82" t="n">
-        <v>12005.4644</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
         <v>18.35000000000008</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2517,21 +2765,24 @@
         <v>18.2</v>
       </c>
       <c r="C83" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="D83" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="E83" t="n">
         <v>18.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1800.09</v>
+        <v>12005.4644</v>
       </c>
       <c r="G83" t="n">
-        <v>18.34833333333341</v>
+        <v>18.35000000000008</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>18.2</v>
       </c>
       <c r="F84" t="n">
-        <v>198244.7587</v>
+        <v>1800.09</v>
       </c>
       <c r="G84" t="n">
-        <v>18.34500000000008</v>
+        <v>18.34833333333341</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>18.2</v>
       </c>
       <c r="C85" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D85" t="n">
         <v>18.2</v>
       </c>
       <c r="E85" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F85" t="n">
-        <v>698273.3936</v>
+        <v>198244.7587</v>
       </c>
       <c r="G85" t="n">
-        <v>18.34166666666674</v>
+        <v>18.34500000000008</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>18.2</v>
       </c>
       <c r="C86" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D86" t="n">
         <v>18.2</v>
       </c>
       <c r="E86" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>698273.3936</v>
       </c>
       <c r="G86" t="n">
-        <v>18.34000000000008</v>
+        <v>18.34166666666674</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>18.2</v>
       </c>
       <c r="F87" t="n">
-        <v>207.5824</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>18.33666666666674</v>
+        <v>18.34000000000008</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>18.2</v>
       </c>
       <c r="F88" t="n">
-        <v>2022.4175</v>
+        <v>207.5824</v>
       </c>
       <c r="G88" t="n">
-        <v>18.33333333333341</v>
+        <v>18.33666666666674</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>18.2</v>
       </c>
       <c r="F89" t="n">
-        <v>160</v>
+        <v>2022.4175</v>
       </c>
       <c r="G89" t="n">
-        <v>18.33000000000008</v>
+        <v>18.33333333333341</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>18.2</v>
       </c>
       <c r="F90" t="n">
-        <v>285.151</v>
+        <v>160</v>
       </c>
       <c r="G90" t="n">
-        <v>18.32500000000008</v>
+        <v>18.33000000000008</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>18.2</v>
       </c>
       <c r="F91" t="n">
-        <v>427.6923</v>
+        <v>285.151</v>
       </c>
       <c r="G91" t="n">
-        <v>18.32166666666674</v>
+        <v>18.32500000000008</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>18.2</v>
       </c>
       <c r="F92" t="n">
-        <v>148318.5714</v>
+        <v>427.6923</v>
       </c>
       <c r="G92" t="n">
-        <v>18.31833333333341</v>
+        <v>18.32166666666674</v>
       </c>
       <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C93" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D93" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E93" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F93" t="n">
-        <v>27930</v>
+        <v>148318.5714</v>
       </c>
       <c r="G93" t="n">
-        <v>18.31166666666674</v>
+        <v>18.31833333333341</v>
       </c>
       <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C94" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D94" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E94" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F94" t="n">
-        <v>1072.1978</v>
+        <v>27930</v>
       </c>
       <c r="G94" t="n">
-        <v>18.3083333333334</v>
+        <v>18.31166666666674</v>
       </c>
       <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C95" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D95" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E95" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F95" t="n">
-        <v>262088.4746</v>
+        <v>1072.1978</v>
       </c>
       <c r="G95" t="n">
-        <v>18.3033333333334</v>
+        <v>18.3083333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>18.1</v>
       </c>
       <c r="F96" t="n">
-        <v>219599.6629</v>
+        <v>262088.4746</v>
       </c>
       <c r="G96" t="n">
-        <v>18.30000000000007</v>
+        <v>18.3033333333334</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>18.1</v>
       </c>
       <c r="F97" t="n">
-        <v>231061.998</v>
+        <v>219599.6629</v>
       </c>
       <c r="G97" t="n">
-        <v>18.29500000000007</v>
+        <v>18.30000000000007</v>
       </c>
       <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C98" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D98" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E98" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1009</v>
+        <v>231061.998</v>
       </c>
       <c r="G98" t="n">
-        <v>18.29166666666673</v>
+        <v>18.29500000000007</v>
       </c>
       <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>18.2</v>
       </c>
       <c r="F99" t="n">
-        <v>191.3736</v>
+        <v>1009</v>
       </c>
       <c r="G99" t="n">
-        <v>18.29000000000007</v>
+        <v>18.29166666666673</v>
       </c>
       <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>18.2</v>
       </c>
       <c r="C100" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D100" t="n">
         <v>18.2</v>
       </c>
       <c r="E100" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F100" t="n">
-        <v>70994.50539999999</v>
+        <v>191.3736</v>
       </c>
       <c r="G100" t="n">
-        <v>18.28500000000006</v>
+        <v>18.29000000000007</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C101" t="n">
         <v>18.1</v>
       </c>
       <c r="D101" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E101" t="n">
         <v>18.1</v>
       </c>
       <c r="F101" t="n">
-        <v>302273.91</v>
+        <v>70994.50539999999</v>
       </c>
       <c r="G101" t="n">
-        <v>18.28000000000006</v>
+        <v>18.28500000000006</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C102" t="n">
         <v>18.1</v>
       </c>
       <c r="D102" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E102" t="n">
         <v>18.1</v>
       </c>
       <c r="F102" t="n">
-        <v>142166.0718</v>
+        <v>302273.91</v>
       </c>
       <c r="G102" t="n">
-        <v>18.27500000000006</v>
+        <v>18.28000000000006</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,10 +3342,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C103" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D103" t="n">
         <v>18.2</v>
@@ -3046,12 +3354,15 @@
         <v>18.1</v>
       </c>
       <c r="F103" t="n">
-        <v>265592.6572</v>
+        <v>142166.0718</v>
       </c>
       <c r="G103" t="n">
-        <v>18.27333333333339</v>
+        <v>18.27500000000006</v>
       </c>
       <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3371,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C104" t="n">
         <v>18.2</v>
@@ -3069,15 +3380,18 @@
         <v>18.2</v>
       </c>
       <c r="E104" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F104" t="n">
-        <v>101</v>
+        <v>265592.6572</v>
       </c>
       <c r="G104" t="n">
-        <v>18.27166666666673</v>
+        <v>18.27333333333339</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C105" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D105" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E105" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F105" t="n">
-        <v>2187.6489</v>
+        <v>101</v>
       </c>
       <c r="G105" t="n">
-        <v>18.26666666666672</v>
+        <v>18.27166666666673</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C106" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D106" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E106" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F106" t="n">
-        <v>1902.4175</v>
+        <v>2187.6489</v>
       </c>
       <c r="G106" t="n">
-        <v>18.26500000000006</v>
+        <v>18.26666666666672</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>18.2</v>
       </c>
       <c r="F107" t="n">
-        <v>40931.8681</v>
+        <v>1902.4175</v>
       </c>
       <c r="G107" t="n">
-        <v>18.26333333333339</v>
+        <v>18.26500000000006</v>
       </c>
       <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>18.2</v>
       </c>
       <c r="F108" t="n">
-        <v>3000</v>
+        <v>40931.8681</v>
       </c>
       <c r="G108" t="n">
-        <v>18.26166666666673</v>
+        <v>18.26333333333339</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C109" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D109" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E109" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F109" t="n">
-        <v>160</v>
+        <v>3000</v>
       </c>
       <c r="G109" t="n">
-        <v>18.25666666666672</v>
+        <v>18.26166666666673</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C110" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D110" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E110" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F110" t="n">
-        <v>13064.6031</v>
+        <v>160</v>
       </c>
       <c r="G110" t="n">
-        <v>18.25500000000006</v>
+        <v>18.25666666666672</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>18.2</v>
       </c>
       <c r="F111" t="n">
-        <v>483.8624</v>
+        <v>13064.6031</v>
       </c>
       <c r="G111" t="n">
-        <v>18.25333333333339</v>
+        <v>18.25500000000006</v>
       </c>
       <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C112" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D112" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E112" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F112" t="n">
-        <v>2088.42</v>
+        <v>483.8624</v>
       </c>
       <c r="G112" t="n">
-        <v>18.24833333333339</v>
+        <v>18.25333333333339</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>18.1</v>
       </c>
       <c r="F113" t="n">
-        <v>120100</v>
+        <v>2088.42</v>
       </c>
       <c r="G113" t="n">
-        <v>18.24500000000006</v>
+        <v>18.24833333333339</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>18.1</v>
       </c>
       <c r="F114" t="n">
-        <v>120625.5025</v>
+        <v>120100</v>
       </c>
       <c r="G114" t="n">
-        <v>18.24000000000006</v>
+        <v>18.24500000000006</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>18.1</v>
       </c>
       <c r="F115" t="n">
-        <v>65</v>
+        <v>120625.5025</v>
       </c>
       <c r="G115" t="n">
-        <v>18.23666666666672</v>
+        <v>18.24000000000006</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>18.1</v>
       </c>
       <c r="F116" t="n">
-        <v>26334.3181</v>
+        <v>65</v>
       </c>
       <c r="G116" t="n">
-        <v>18.23166666666672</v>
+        <v>18.23666666666672</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>18.1</v>
       </c>
       <c r="F117" t="n">
-        <v>32015.5878</v>
+        <v>26334.3181</v>
       </c>
       <c r="G117" t="n">
-        <v>18.22833333333339</v>
+        <v>18.23166666666672</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C118" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D118" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E118" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F118" t="n">
-        <v>4987.5</v>
+        <v>32015.5878</v>
       </c>
       <c r="G118" t="n">
-        <v>18.22333333333338</v>
+        <v>18.22833333333339</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>18</v>
       </c>
       <c r="F119" t="n">
-        <v>1427934.2814</v>
+        <v>4987.5</v>
       </c>
       <c r="G119" t="n">
-        <v>18.21666666666671</v>
+        <v>18.22333333333338</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C120" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D120" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E120" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F120" t="n">
-        <v>231.8756</v>
+        <v>1427934.2814</v>
       </c>
       <c r="G120" t="n">
-        <v>18.21333333333338</v>
+        <v>18.21666666666671</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C121" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D121" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E121" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F121" t="n">
-        <v>41200</v>
+        <v>231.8756</v>
       </c>
       <c r="G121" t="n">
-        <v>18.20666666666671</v>
+        <v>18.21333333333338</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3534,18 +3899,21 @@
         <v>18</v>
       </c>
       <c r="D122" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E122" t="n">
         <v>18</v>
       </c>
       <c r="F122" t="n">
-        <v>308027.8655</v>
+        <v>41200</v>
       </c>
       <c r="G122" t="n">
-        <v>18.20000000000005</v>
+        <v>18.20666666666671</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3560,18 +3928,21 @@
         <v>18</v>
       </c>
       <c r="D123" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E123" t="n">
         <v>18</v>
       </c>
       <c r="F123" t="n">
-        <v>106984.8752</v>
+        <v>308027.8655</v>
       </c>
       <c r="G123" t="n">
-        <v>18.19333333333338</v>
+        <v>18.20000000000005</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D124" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E124" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F124" t="n">
-        <v>82.8729</v>
+        <v>106984.8752</v>
       </c>
       <c r="G124" t="n">
-        <v>18.18833333333338</v>
+        <v>18.19333333333338</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C125" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E125" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F125" t="n">
-        <v>27564.2201</v>
+        <v>82.8729</v>
       </c>
       <c r="G125" t="n">
-        <v>18.18166666666671</v>
+        <v>18.18833333333338</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C126" t="n">
         <v>18</v>
       </c>
       <c r="D126" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E126" t="n">
         <v>18</v>
       </c>
       <c r="F126" t="n">
-        <v>13807.1806</v>
+        <v>27564.2201</v>
       </c>
       <c r="G126" t="n">
-        <v>18.17500000000004</v>
+        <v>18.18166666666671</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C127" t="n">
         <v>18</v>
       </c>
       <c r="D127" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E127" t="n">
         <v>18</v>
       </c>
       <c r="F127" t="n">
-        <v>6419.4875</v>
+        <v>13807.1806</v>
       </c>
       <c r="G127" t="n">
-        <v>18.17000000000004</v>
+        <v>18.17500000000004</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C128" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D128" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E128" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F128" t="n">
-        <v>240</v>
+        <v>6419.4875</v>
       </c>
       <c r="G128" t="n">
-        <v>18.16500000000003</v>
+        <v>18.17000000000004</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>18.1</v>
       </c>
       <c r="F129" t="n">
-        <v>226.1878</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
-        <v>18.16000000000003</v>
+        <v>18.16500000000003</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>18.1</v>
       </c>
       <c r="F130" t="n">
-        <v>191.1049</v>
+        <v>226.1878</v>
       </c>
       <c r="G130" t="n">
-        <v>18.1566666666667</v>
+        <v>18.16000000000003</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>18.1</v>
       </c>
       <c r="F131" t="n">
-        <v>104</v>
+        <v>191.1049</v>
       </c>
       <c r="G131" t="n">
-        <v>18.15333333333336</v>
+        <v>18.1566666666667</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3800,12 +4195,15 @@
         <v>18.1</v>
       </c>
       <c r="F132" t="n">
-        <v>2000</v>
+        <v>104</v>
       </c>
       <c r="G132" t="n">
-        <v>18.15000000000003</v>
+        <v>18.15333333333336</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,12 +4224,15 @@
         <v>18.1</v>
       </c>
       <c r="F133" t="n">
-        <v>1384879.9953</v>
+        <v>2000</v>
       </c>
       <c r="G133" t="n">
-        <v>18.1466666666667</v>
+        <v>18.15000000000003</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3852,12 +4253,15 @@
         <v>18.1</v>
       </c>
       <c r="F134" t="n">
-        <v>1571274.2849</v>
+        <v>1384879.9953</v>
       </c>
       <c r="G134" t="n">
-        <v>18.14333333333336</v>
+        <v>18.1466666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3878,12 +4282,15 @@
         <v>18.1</v>
       </c>
       <c r="F135" t="n">
-        <v>152939.8879</v>
+        <v>1571274.2849</v>
       </c>
       <c r="G135" t="n">
-        <v>18.14000000000003</v>
+        <v>18.14333333333336</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,12 +4311,15 @@
         <v>18.1</v>
       </c>
       <c r="F136" t="n">
-        <v>1295.6689</v>
+        <v>152939.8879</v>
       </c>
       <c r="G136" t="n">
-        <v>18.1366666666667</v>
+        <v>18.14000000000003</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>18.1</v>
       </c>
       <c r="F137" t="n">
-        <v>325281</v>
+        <v>1295.6689</v>
       </c>
       <c r="G137" t="n">
-        <v>18.13333333333336</v>
+        <v>18.1366666666667</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>18.1</v>
       </c>
       <c r="F138" t="n">
-        <v>1844.6659</v>
+        <v>325281</v>
       </c>
       <c r="G138" t="n">
-        <v>18.13000000000003</v>
+        <v>18.13333333333336</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C139" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D139" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E139" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F139" t="n">
-        <v>280272.2659</v>
+        <v>1844.6659</v>
       </c>
       <c r="G139" t="n">
-        <v>18.12500000000002</v>
+        <v>18.13000000000003</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C140" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D140" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E140" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F140" t="n">
-        <v>42320</v>
+        <v>280272.2659</v>
       </c>
       <c r="G140" t="n">
-        <v>18.12166666666669</v>
+        <v>18.12500000000002</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>18.1</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>42320</v>
       </c>
       <c r="G141" t="n">
-        <v>18.12000000000002</v>
+        <v>18.12166666666669</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>18.1</v>
       </c>
       <c r="F142" t="n">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>18.11666666666669</v>
+        <v>18.12000000000002</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>18.1</v>
       </c>
       <c r="F143" t="n">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="G143" t="n">
-        <v>18.11500000000002</v>
+        <v>18.11666666666669</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4106,18 +4537,21 @@
         <v>18.1</v>
       </c>
       <c r="D144" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E144" t="n">
         <v>18.1</v>
       </c>
       <c r="F144" t="n">
-        <v>691977.9162</v>
+        <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>18.11333333333335</v>
+        <v>18.11500000000002</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4132,18 +4566,21 @@
         <v>18.1</v>
       </c>
       <c r="D145" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E145" t="n">
         <v>18.1</v>
       </c>
       <c r="F145" t="n">
-        <v>16574.5856</v>
+        <v>691977.9162</v>
       </c>
       <c r="G145" t="n">
         <v>18.11333333333335</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>18.1</v>
       </c>
       <c r="F146" t="n">
-        <v>19930</v>
+        <v>16574.5856</v>
       </c>
       <c r="G146" t="n">
-        <v>18.11166666666668</v>
+        <v>18.11333333333335</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>18.1</v>
       </c>
       <c r="F147" t="n">
-        <v>2199.1712</v>
+        <v>19930</v>
       </c>
       <c r="G147" t="n">
-        <v>18.11000000000001</v>
+        <v>18.11166666666668</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>18.1</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>2199.1712</v>
       </c>
       <c r="G148" t="n">
-        <v>18.10833333333334</v>
+        <v>18.11000000000001</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>18.1</v>
       </c>
       <c r="F149" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>18.10666666666668</v>
+        <v>18.10833333333334</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D150" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E150" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F150" t="n">
-        <v>1961.04</v>
+        <v>500</v>
       </c>
       <c r="G150" t="n">
-        <v>18.10333333333334</v>
+        <v>18.10666666666668</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>18</v>
       </c>
       <c r="F151" t="n">
-        <v>1227.2334</v>
+        <v>1961.04</v>
       </c>
       <c r="G151" t="n">
-        <v>18.10000000000001</v>
+        <v>18.10333333333334</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>18</v>
       </c>
       <c r="F152" t="n">
-        <v>43332.4982</v>
+        <v>1227.2334</v>
       </c>
       <c r="G152" t="n">
-        <v>18.09666666666667</v>
+        <v>18.10000000000001</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C153" t="n">
         <v>18</v>
       </c>
       <c r="D153" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E153" t="n">
         <v>18</v>
       </c>
       <c r="F153" t="n">
-        <v>1452.32</v>
+        <v>43332.4982</v>
       </c>
       <c r="G153" t="n">
-        <v>18.09500000000001</v>
+        <v>18.09666666666667</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C154" t="n">
         <v>18</v>
       </c>
       <c r="D154" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E154" t="n">
         <v>18</v>
       </c>
       <c r="F154" t="n">
-        <v>260849.9445</v>
+        <v>1452.32</v>
       </c>
       <c r="G154" t="n">
-        <v>18.09166666666668</v>
+        <v>18.09500000000001</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C155" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D155" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E155" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F155" t="n">
-        <v>100</v>
+        <v>260849.9445</v>
       </c>
       <c r="G155" t="n">
         <v>18.09166666666668</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>18.1</v>
       </c>
       <c r="F156" t="n">
-        <v>950.8287</v>
+        <v>100</v>
       </c>
       <c r="G156" t="n">
         <v>18.09166666666668</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>18.1</v>
       </c>
       <c r="F157" t="n">
-        <v>1491.7127</v>
+        <v>950.8287</v>
       </c>
       <c r="G157" t="n">
         <v>18.09166666666668</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>18.1</v>
       </c>
       <c r="F158" t="n">
-        <v>66298.2795</v>
+        <v>1491.7127</v>
       </c>
       <c r="G158" t="n">
-        <v>18.09000000000001</v>
+        <v>18.09166666666668</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4490,7 +4966,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C159" t="n">
         <v>18.1</v>
@@ -4499,15 +4975,18 @@
         <v>18.1</v>
       </c>
       <c r="E159" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F159" t="n">
-        <v>20240.2597</v>
+        <v>66298.2795</v>
       </c>
       <c r="G159" t="n">
-        <v>18.08833333333333</v>
+        <v>18.09000000000001</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,7 +4995,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C160" t="n">
         <v>18.1</v>
@@ -4525,15 +5004,18 @@
         <v>18.1</v>
       </c>
       <c r="E160" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F160" t="n">
-        <v>5524.8618</v>
+        <v>20240.2597</v>
       </c>
       <c r="G160" t="n">
         <v>18.08833333333333</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>18.1</v>
       </c>
       <c r="F161" t="n">
-        <v>3349.0607</v>
+        <v>5524.8618</v>
       </c>
       <c r="G161" t="n">
         <v>18.08833333333333</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>18.1</v>
       </c>
       <c r="F162" t="n">
-        <v>11049.7237569</v>
+        <v>3349.0607</v>
       </c>
       <c r="G162" t="n">
         <v>18.08833333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4606,12 +5094,15 @@
         <v>18.1</v>
       </c>
       <c r="F163" t="n">
-        <v>100000</v>
+        <v>11049.7237569</v>
       </c>
       <c r="G163" t="n">
-        <v>18.08666666666667</v>
+        <v>18.08833333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>18.1</v>
       </c>
       <c r="F164" t="n">
-        <v>31848.8736</v>
+        <v>100000</v>
       </c>
       <c r="G164" t="n">
-        <v>18.085</v>
+        <v>18.08666666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>18.1</v>
       </c>
       <c r="F165" t="n">
-        <v>127338.5443</v>
+        <v>31848.8736</v>
       </c>
       <c r="G165" t="n">
         <v>18.085</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>18.1</v>
       </c>
       <c r="F166" t="n">
-        <v>49723.7569</v>
+        <v>127338.5443</v>
       </c>
       <c r="G166" t="n">
-        <v>18.08333333333333</v>
+        <v>18.085</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>18.1</v>
       </c>
       <c r="F167" t="n">
-        <v>295421.9999431</v>
+        <v>49723.7569</v>
       </c>
       <c r="G167" t="n">
-        <v>18.08166666666666</v>
+        <v>18.08333333333333</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C168" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D168" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E168" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F168" t="n">
-        <v>6964.6152</v>
+        <v>295421.9999431</v>
       </c>
       <c r="G168" t="n">
         <v>18.08166666666666</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4753,21 +5259,24 @@
         <v>18.2</v>
       </c>
       <c r="C169" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D169" t="n">
         <v>18.2</v>
       </c>
       <c r="E169" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F169" t="n">
-        <v>6307.8296</v>
+        <v>6964.6152</v>
       </c>
       <c r="G169" t="n">
         <v>18.08166666666666</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4779,21 +5288,24 @@
         <v>18.2</v>
       </c>
       <c r="C170" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D170" t="n">
         <v>18.2</v>
       </c>
       <c r="E170" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F170" t="n">
-        <v>10.8791</v>
+        <v>6307.8296</v>
       </c>
       <c r="G170" t="n">
         <v>18.08166666666666</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C171" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D171" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E171" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F171" t="n">
-        <v>2006.31</v>
+        <v>10.8791</v>
       </c>
       <c r="G171" t="n">
-        <v>18.07999999999999</v>
+        <v>18.08166666666666</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>18.1</v>
       </c>
       <c r="F172" t="n">
-        <v>34111.3333</v>
+        <v>2006.31</v>
       </c>
       <c r="G172" t="n">
         <v>18.07999999999999</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4860,18 +5378,21 @@
         <v>18.1</v>
       </c>
       <c r="D173" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E173" t="n">
         <v>18.1</v>
       </c>
       <c r="F173" t="n">
-        <v>480751.2929</v>
+        <v>34111.3333</v>
       </c>
       <c r="G173" t="n">
         <v>18.07999999999999</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4886,18 +5407,21 @@
         <v>18.1</v>
       </c>
       <c r="D174" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E174" t="n">
         <v>18.1</v>
       </c>
       <c r="F174" t="n">
-        <v>12220</v>
+        <v>480751.2929</v>
       </c>
       <c r="G174" t="n">
         <v>18.07999999999999</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>18.1</v>
       </c>
       <c r="F175" t="n">
-        <v>654613.1878</v>
+        <v>12220</v>
       </c>
       <c r="G175" t="n">
         <v>18.07999999999999</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C176" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D176" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E176" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F176" t="n">
-        <v>30000</v>
+        <v>654613.1878</v>
       </c>
       <c r="G176" t="n">
-        <v>18.08166666666666</v>
+        <v>18.07999999999999</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4970,12 +5500,15 @@
         <v>18.2</v>
       </c>
       <c r="F177" t="n">
-        <v>110000</v>
+        <v>30000</v>
       </c>
       <c r="G177" t="n">
-        <v>18.08333333333333</v>
+        <v>18.08166666666666</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C178" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D178" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E178" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F178" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="G178" t="n">
-        <v>18.08499999999999</v>
+        <v>18.08333333333333</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,25 +5546,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C179" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D179" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E179" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F179" t="n">
-        <v>36565.934</v>
+        <v>350000</v>
       </c>
       <c r="G179" t="n">
-        <v>18.08833333333333</v>
+        <v>18.08499999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C180" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D180" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E180" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F180" t="n">
-        <v>1441.61</v>
+        <v>36565.934</v>
       </c>
       <c r="G180" t="n">
         <v>18.08833333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C181" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D181" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E181" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F181" t="n">
-        <v>3416.7307</v>
+        <v>1441.61</v>
       </c>
       <c r="G181" t="n">
-        <v>18.09166666666666</v>
+        <v>18.08833333333333</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C182" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D182" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E182" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F182" t="n">
-        <v>1483.78</v>
+        <v>3416.7307</v>
       </c>
       <c r="G182" t="n">
-        <v>18.09333333333333</v>
+        <v>18.09166666666666</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>18.1</v>
       </c>
       <c r="F183" t="n">
-        <v>343513.4905</v>
+        <v>1483.78</v>
       </c>
       <c r="G183" t="n">
-        <v>18.09499999999999</v>
+        <v>18.09333333333333</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5152,12 +5703,15 @@
         <v>18.1</v>
       </c>
       <c r="F184" t="n">
-        <v>167948.736</v>
+        <v>343513.4905</v>
       </c>
       <c r="G184" t="n">
         <v>18.09499999999999</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5178,12 +5732,15 @@
         <v>18.1</v>
       </c>
       <c r="F185" t="n">
-        <v>1335.5791</v>
+        <v>167948.736</v>
       </c>
       <c r="G185" t="n">
-        <v>18.09666666666666</v>
+        <v>18.09499999999999</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5204,12 +5761,15 @@
         <v>18.1</v>
       </c>
       <c r="F186" t="n">
-        <v>164380.5219</v>
+        <v>1335.5791</v>
       </c>
       <c r="G186" t="n">
-        <v>18.09833333333332</v>
+        <v>18.09666666666666</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5230,12 +5790,15 @@
         <v>18.1</v>
       </c>
       <c r="F187" t="n">
-        <v>63228.7716</v>
+        <v>164380.5219</v>
       </c>
       <c r="G187" t="n">
-        <v>18.09999999999999</v>
+        <v>18.09833333333332</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,12 +5819,15 @@
         <v>18.1</v>
       </c>
       <c r="F188" t="n">
-        <v>75231.5</v>
+        <v>63228.7716</v>
       </c>
       <c r="G188" t="n">
         <v>18.09999999999999</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C189" t="n">
         <v>18.1</v>
       </c>
       <c r="D189" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E189" t="n">
         <v>18.1</v>
       </c>
       <c r="F189" t="n">
-        <v>1973.5339</v>
+        <v>75231.5</v>
       </c>
       <c r="G189" t="n">
         <v>18.09999999999999</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5299,21 +5868,24 @@
         <v>18.2</v>
       </c>
       <c r="C190" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D190" t="n">
         <v>18.2</v>
       </c>
       <c r="E190" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F190" t="n">
-        <v>5000</v>
+        <v>1973.5339</v>
       </c>
       <c r="G190" t="n">
-        <v>18.10166666666666</v>
+        <v>18.09999999999999</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C191" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D191" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E191" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F191" t="n">
-        <v>56758.5806</v>
+        <v>5000</v>
       </c>
       <c r="G191" t="n">
         <v>18.10166666666666</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5360,12 +5935,15 @@
         <v>18.1</v>
       </c>
       <c r="F192" t="n">
-        <v>28762.0131</v>
+        <v>56758.5806</v>
       </c>
       <c r="G192" t="n">
         <v>18.10166666666666</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>18.1</v>
       </c>
       <c r="F193" t="n">
-        <v>33409.5536</v>
+        <v>28762.0131</v>
       </c>
       <c r="G193" t="n">
         <v>18.10166666666666</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5412,12 +5993,15 @@
         <v>18.1</v>
       </c>
       <c r="F194" t="n">
-        <v>27024.7182</v>
+        <v>33409.5536</v>
       </c>
       <c r="G194" t="n">
         <v>18.10166666666666</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5438,12 +6022,15 @@
         <v>18.1</v>
       </c>
       <c r="F195" t="n">
-        <v>27071.8232</v>
+        <v>27024.7182</v>
       </c>
       <c r="G195" t="n">
         <v>18.10166666666666</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>18.1</v>
       </c>
       <c r="F196" t="n">
-        <v>13125.798</v>
+        <v>27071.8232</v>
       </c>
       <c r="G196" t="n">
         <v>18.10166666666666</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,12 +6080,15 @@
         <v>18.1</v>
       </c>
       <c r="F197" t="n">
-        <v>30657.9232</v>
+        <v>13125.798</v>
       </c>
       <c r="G197" t="n">
         <v>18.10166666666666</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>18.1</v>
       </c>
       <c r="F198" t="n">
-        <v>8862.0041</v>
+        <v>30657.9232</v>
       </c>
       <c r="G198" t="n">
         <v>18.10166666666666</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>18.1</v>
       </c>
       <c r="F199" t="n">
-        <v>2440.8</v>
+        <v>8862.0041</v>
       </c>
       <c r="G199" t="n">
-        <v>18.10333333333332</v>
+        <v>18.10166666666666</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5568,12 +6167,15 @@
         <v>18.1</v>
       </c>
       <c r="F200" t="n">
-        <v>1686.8408</v>
+        <v>2440.8</v>
       </c>
       <c r="G200" t="n">
         <v>18.10333333333332</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>18.1</v>
       </c>
       <c r="F201" t="n">
-        <v>1724.8026</v>
+        <v>1686.8408</v>
       </c>
       <c r="G201" t="n">
         <v>18.10333333333332</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C202" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D202" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E202" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F202" t="n">
-        <v>63.1868</v>
+        <v>1724.8026</v>
       </c>
       <c r="G202" t="n">
-        <v>18.10499999999999</v>
+        <v>18.10333333333332</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5637,21 +6245,24 @@
         <v>18.2</v>
       </c>
       <c r="C203" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D203" t="n">
         <v>18.2</v>
       </c>
       <c r="E203" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F203" t="n">
-        <v>39177.2823</v>
+        <v>63.1868</v>
       </c>
       <c r="G203" t="n">
         <v>18.10499999999999</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5663,21 +6274,24 @@
         <v>18.2</v>
       </c>
       <c r="C204" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D204" t="n">
         <v>18.2</v>
       </c>
       <c r="E204" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F204" t="n">
-        <v>1633.5164</v>
+        <v>39177.2823</v>
       </c>
       <c r="G204" t="n">
-        <v>18.10666666666666</v>
+        <v>18.10499999999999</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>18.2</v>
       </c>
       <c r="F205" t="n">
-        <v>12074.5054</v>
+        <v>1633.5164</v>
       </c>
       <c r="G205" t="n">
-        <v>18.10833333333333</v>
+        <v>18.10666666666666</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C206" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D206" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E206" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F206" t="n">
-        <v>1454.86</v>
+        <v>12074.5054</v>
       </c>
       <c r="G206" t="n">
         <v>18.10833333333333</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,24 +6358,27 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C207" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D207" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E207" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F207" t="n">
-        <v>23.1868</v>
+        <v>1454.86</v>
       </c>
       <c r="G207" t="n">
-        <v>18.11</v>
+        <v>18.10833333333333</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C208" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D208" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E208" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F208" t="n">
-        <v>38411.9051</v>
+        <v>23.1868</v>
       </c>
       <c r="G208" t="n">
         <v>18.11</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5802,12 +6428,15 @@
         <v>18.1</v>
       </c>
       <c r="F209" t="n">
-        <v>98923.0702</v>
+        <v>38411.9051</v>
       </c>
       <c r="G209" t="n">
         <v>18.11</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>18.1</v>
       </c>
       <c r="F210" t="n">
-        <v>630673.8602999999</v>
+        <v>98923.0702</v>
       </c>
       <c r="G210" t="n">
-        <v>18.11166666666666</v>
+        <v>18.11</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,12 +6486,15 @@
         <v>18.1</v>
       </c>
       <c r="F211" t="n">
-        <v>313367.8452</v>
+        <v>630673.8602999999</v>
       </c>
       <c r="G211" t="n">
-        <v>18.11333333333333</v>
+        <v>18.11166666666666</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,12 +6515,15 @@
         <v>18.1</v>
       </c>
       <c r="F212" t="n">
-        <v>332.98342541</v>
+        <v>313367.8452</v>
       </c>
       <c r="G212" t="n">
-        <v>18.11499999999999</v>
+        <v>18.11333333333333</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>18.1</v>
       </c>
       <c r="F213" t="n">
-        <v>99943.63800000001</v>
+        <v>332.98342541</v>
       </c>
       <c r="G213" t="n">
-        <v>18.11666666666666</v>
+        <v>18.11499999999999</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>18.1</v>
       </c>
       <c r="F214" t="n">
-        <v>555.0276243</v>
+        <v>99943.63800000001</v>
       </c>
       <c r="G214" t="n">
-        <v>18.11833333333333</v>
+        <v>18.11666666666666</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,24 +6590,27 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C215" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D215" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E215" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F215" t="n">
-        <v>1760.59</v>
+        <v>555.0276243</v>
       </c>
       <c r="G215" t="n">
-        <v>18.11666666666666</v>
+        <v>18.11833333333333</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>18</v>
       </c>
       <c r="F216" t="n">
-        <v>900557.5516</v>
+        <v>1760.59</v>
       </c>
       <c r="G216" t="n">
-        <v>18.11499999999999</v>
+        <v>18.11666666666666</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>18</v>
       </c>
       <c r="F217" t="n">
-        <v>1009622.2012</v>
+        <v>900557.5516</v>
       </c>
       <c r="G217" t="n">
-        <v>18.11333333333333</v>
+        <v>18.11499999999999</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6036,12 +6689,15 @@
         <v>18</v>
       </c>
       <c r="F218" t="n">
-        <v>404554.0554</v>
+        <v>1009622.2012</v>
       </c>
       <c r="G218" t="n">
-        <v>18.11166666666666</v>
+        <v>18.11333333333333</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="C219" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="D219" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="E219" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="F219" t="n">
-        <v>3875.8281</v>
+        <v>404554.0554</v>
       </c>
       <c r="G219" t="n">
-        <v>18.10833333333333</v>
+        <v>18.11166666666666</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="C220" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="D220" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="E220" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F220" t="n">
-        <v>15</v>
+        <v>3875.8281</v>
       </c>
       <c r="G220" t="n">
-        <v>18.10666666666667</v>
+        <v>18.10833333333333</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +6776,15 @@
         <v>18</v>
       </c>
       <c r="F221" t="n">
-        <v>81783.977</v>
+        <v>15</v>
       </c>
       <c r="G221" t="n">
-        <v>18.105</v>
+        <v>18.10666666666667</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,12 +6805,15 @@
         <v>18</v>
       </c>
       <c r="F222" t="n">
-        <v>24741.1666</v>
+        <v>81783.977</v>
       </c>
       <c r="G222" t="n">
-        <v>18.10333333333334</v>
+        <v>18.105</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6166,12 +6834,15 @@
         <v>18</v>
       </c>
       <c r="F223" t="n">
-        <v>40336.3136</v>
+        <v>24741.1666</v>
       </c>
       <c r="G223" t="n">
-        <v>18.10166666666667</v>
+        <v>18.10333333333334</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>18</v>
       </c>
       <c r="F224" t="n">
-        <v>41300</v>
+        <v>40336.3136</v>
       </c>
       <c r="G224" t="n">
-        <v>18.10000000000001</v>
+        <v>18.10166666666667</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,12 +6892,15 @@
         <v>18</v>
       </c>
       <c r="F225" t="n">
-        <v>214648.5503</v>
+        <v>41300</v>
       </c>
       <c r="G225" t="n">
-        <v>18.09833333333334</v>
+        <v>18.10000000000001</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>18</v>
       </c>
       <c r="F226" t="n">
-        <v>3000</v>
+        <v>214648.5503</v>
       </c>
       <c r="G226" t="n">
-        <v>18.09666666666668</v>
+        <v>18.09833333333334</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,12 +6950,15 @@
         <v>18</v>
       </c>
       <c r="F227" t="n">
-        <v>159576.0594</v>
+        <v>3000</v>
       </c>
       <c r="G227" t="n">
-        <v>18.09500000000001</v>
+        <v>18.09666666666668</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6296,12 +6979,15 @@
         <v>18</v>
       </c>
       <c r="F228" t="n">
-        <v>17003.9841</v>
+        <v>159576.0594</v>
       </c>
       <c r="G228" t="n">
-        <v>18.09166666666668</v>
+        <v>18.09500000000001</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6322,12 +7008,15 @@
         <v>18</v>
       </c>
       <c r="F229" t="n">
-        <v>46733.4206</v>
+        <v>17003.9841</v>
       </c>
       <c r="G229" t="n">
-        <v>18.09000000000001</v>
+        <v>18.09166666666668</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6348,12 +7037,15 @@
         <v>18</v>
       </c>
       <c r="F230" t="n">
-        <v>504206.1638</v>
+        <v>46733.4206</v>
       </c>
       <c r="G230" t="n">
-        <v>18.08666666666668</v>
+        <v>18.09000000000001</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6374,12 +7066,15 @@
         <v>18</v>
       </c>
       <c r="F231" t="n">
-        <v>55555.55555555</v>
+        <v>504206.1638</v>
       </c>
       <c r="G231" t="n">
-        <v>18.08500000000002</v>
+        <v>18.08666666666668</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6400,12 +7095,15 @@
         <v>18</v>
       </c>
       <c r="F232" t="n">
-        <v>2408.2777</v>
+        <v>55555.55555555</v>
       </c>
       <c r="G232" t="n">
-        <v>18.08333333333335</v>
+        <v>18.08500000000002</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="C233" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="D233" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="E233" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="F233" t="n">
-        <v>3005.22</v>
+        <v>2408.2777</v>
       </c>
       <c r="G233" t="n">
-        <v>18.08000000000002</v>
+        <v>18.08333333333335</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="C234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="D234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="E234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F234" t="n">
-        <v>230</v>
+        <v>3005.22</v>
       </c>
       <c r="G234" t="n">
-        <v>18.07833333333335</v>
+        <v>18.08000000000002</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="C235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="D235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="E235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="F235" t="n">
-        <v>2570.7085</v>
+        <v>230</v>
       </c>
       <c r="G235" t="n">
-        <v>18.07500000000002</v>
+        <v>18.07833333333335</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6504,12 +7211,15 @@
         <v>17.9</v>
       </c>
       <c r="F236" t="n">
-        <v>823277.7602</v>
+        <v>2570.7085</v>
       </c>
       <c r="G236" t="n">
-        <v>18.07000000000003</v>
+        <v>18.07500000000002</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6530,12 +7240,15 @@
         <v>17.9</v>
       </c>
       <c r="F237" t="n">
-        <v>310112.2771</v>
+        <v>823277.7602</v>
       </c>
       <c r="G237" t="n">
-        <v>18.06500000000002</v>
+        <v>18.07000000000003</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6544,24 +7257,27 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="C238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="D238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="E238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F238" t="n">
-        <v>5000</v>
+        <v>310112.2771</v>
       </c>
       <c r="G238" t="n">
-        <v>18.06333333333336</v>
+        <v>18.06500000000002</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6582,12 +7298,15 @@
         <v>18</v>
       </c>
       <c r="F239" t="n">
-        <v>1090040.95664445</v>
+        <v>5000</v>
       </c>
       <c r="G239" t="n">
-        <v>18.06000000000002</v>
+        <v>18.06333333333336</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6605,15 +7324,18 @@
         <v>18</v>
       </c>
       <c r="E240" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="F240" t="n">
-        <v>767395.4639</v>
+        <v>1090040.95664445</v>
       </c>
       <c r="G240" t="n">
-        <v>18.05833333333336</v>
+        <v>18.06000000000002</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6631,16 +7353,19 @@
         <v>18</v>
       </c>
       <c r="E241" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F241" t="n">
-        <v>119154.2366</v>
+        <v>767395.4639</v>
       </c>
       <c r="G241" t="n">
-        <v>18.05500000000002</v>
+        <v>18.05833333333336</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -6660,12 +7385,15 @@
         <v>18</v>
       </c>
       <c r="F242" t="n">
-        <v>430.5508</v>
+        <v>119154.2366</v>
       </c>
       <c r="G242" t="n">
-        <v>18.05333333333336</v>
+        <v>18.05500000000002</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,12 +7414,15 @@
         <v>18</v>
       </c>
       <c r="F243" t="n">
-        <v>194791.5639</v>
+        <v>430.5508</v>
       </c>
       <c r="G243" t="n">
-        <v>18.05166666666669</v>
+        <v>18.05333333333336</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C244" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D244" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E244" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F244" t="n">
-        <v>555.0276243</v>
+        <v>194791.5639</v>
       </c>
       <c r="G244" t="n">
         <v>18.05166666666669</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="C245" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D245" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E245" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="F245" t="n">
-        <v>2251.3</v>
+        <v>555.0276243</v>
       </c>
       <c r="G245" t="n">
-        <v>18.05000000000003</v>
+        <v>18.05166666666669</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="C246" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D246" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E246" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F246" t="n">
-        <v>216220.353</v>
+        <v>2251.3</v>
       </c>
       <c r="G246" t="n">
         <v>18.05000000000003</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C247" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D247" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E247" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F247" t="n">
-        <v>308978.8613514</v>
+        <v>216220.353</v>
       </c>
       <c r="G247" t="n">
-        <v>18.0516666666667</v>
+        <v>18.05000000000003</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,7 +7547,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C248" t="n">
         <v>18.2</v>
@@ -6813,15 +7556,18 @@
         <v>18.2</v>
       </c>
       <c r="E248" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F248" t="n">
-        <v>76133.02197802</v>
+        <v>308978.8613514</v>
       </c>
       <c r="G248" t="n">
-        <v>18.05333333333337</v>
+        <v>18.0516666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6836,19 +7582,22 @@
         <v>18.2</v>
       </c>
       <c r="D249" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="E249" t="n">
         <v>18.2</v>
       </c>
       <c r="F249" t="n">
-        <v>487959.2991</v>
+        <v>76133.02197802</v>
       </c>
       <c r="G249" t="n">
-        <v>18.05500000000004</v>
+        <v>18.05333333333337</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -6862,19 +7611,22 @@
         <v>18.2</v>
       </c>
       <c r="D250" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="E250" t="n">
         <v>18.2</v>
       </c>
       <c r="F250" t="n">
-        <v>26655.1916</v>
+        <v>487959.2991</v>
       </c>
       <c r="G250" t="n">
         <v>18.05500000000004</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -6885,22 +7637,25 @@
         <v>18.2</v>
       </c>
       <c r="C251" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D251" t="n">
         <v>18.2</v>
       </c>
       <c r="E251" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F251" t="n">
-        <v>147970.283</v>
+        <v>26655.1916</v>
       </c>
       <c r="G251" t="n">
         <v>18.05500000000004</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -6911,22 +7666,25 @@
         <v>18.2</v>
       </c>
       <c r="C252" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D252" t="n">
         <v>18.2</v>
       </c>
       <c r="E252" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F252" t="n">
-        <v>10962.912</v>
+        <v>147970.283</v>
       </c>
       <c r="G252" t="n">
-        <v>18.05666666666671</v>
+        <v>18.05500000000004</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -6937,21 +7695,24 @@
         <v>18.2</v>
       </c>
       <c r="C253" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D253" t="n">
         <v>18.2</v>
       </c>
       <c r="E253" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F253" t="n">
-        <v>50000</v>
+        <v>10962.912</v>
       </c>
       <c r="G253" t="n">
         <v>18.05666666666671</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6963,21 +7724,24 @@
         <v>18.2</v>
       </c>
       <c r="C254" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D254" t="n">
         <v>18.2</v>
       </c>
       <c r="E254" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F254" t="n">
-        <v>2993.8472</v>
+        <v>50000</v>
       </c>
       <c r="G254" t="n">
-        <v>18.05833333333338</v>
+        <v>18.05666666666671</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6998,12 +7762,15 @@
         <v>18.2</v>
       </c>
       <c r="F255" t="n">
-        <v>2334.7548</v>
+        <v>2993.8472</v>
       </c>
       <c r="G255" t="n">
-        <v>18.06000000000004</v>
+        <v>18.05833333333338</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7024,12 +7791,15 @@
         <v>18.2</v>
       </c>
       <c r="F256" t="n">
-        <v>153.18681318</v>
+        <v>2334.7548</v>
       </c>
       <c r="G256" t="n">
-        <v>18.06166666666671</v>
+        <v>18.06000000000004</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,24 +7808,27 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C257" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D257" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E257" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F257" t="n">
-        <v>1995</v>
+        <v>153.18681318</v>
       </c>
       <c r="G257" t="n">
         <v>18.06166666666671</v>
       </c>
       <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7064,24 +7837,27 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C258" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D258" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E258" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F258" t="n">
-        <v>6043.956</v>
+        <v>1995</v>
       </c>
       <c r="G258" t="n">
-        <v>18.06333333333338</v>
+        <v>18.06166666666671</v>
       </c>
       <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7090,24 +7866,27 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C259" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D259" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E259" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F259" t="n">
-        <v>2635.18</v>
+        <v>6043.956</v>
       </c>
       <c r="G259" t="n">
         <v>18.06333333333338</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7128,12 +7907,15 @@
         <v>18.1</v>
       </c>
       <c r="F260" t="n">
-        <v>315853.3516</v>
+        <v>2635.18</v>
       </c>
       <c r="G260" t="n">
         <v>18.06333333333338</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C261" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D261" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E261" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F261" t="n">
-        <v>10.151</v>
+        <v>315853.3516</v>
       </c>
       <c r="G261" t="n">
-        <v>18.06500000000005</v>
+        <v>18.06333333333338</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7168,24 +7953,27 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="C262" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="D262" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="E262" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="F262" t="n">
-        <v>1548.85</v>
+        <v>10.151</v>
       </c>
       <c r="G262" t="n">
-        <v>18.06166666666672</v>
+        <v>18.06500000000005</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C263" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="D263" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="E263" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F263" t="n">
-        <v>27500</v>
+        <v>1548.85</v>
       </c>
       <c r="G263" t="n">
-        <v>18.06333333333339</v>
+        <v>18.06166666666672</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7223,21 +8014,24 @@
         <v>18.1</v>
       </c>
       <c r="C264" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D264" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E264" t="n">
         <v>18.1</v>
       </c>
       <c r="F264" t="n">
-        <v>95013.25</v>
+        <v>27500</v>
       </c>
       <c r="G264" t="n">
-        <v>18.06166666666672</v>
+        <v>18.06333333333339</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7258,12 +8052,15 @@
         <v>18.1</v>
       </c>
       <c r="F265" t="n">
-        <v>18231.98895027</v>
+        <v>95013.25</v>
       </c>
       <c r="G265" t="n">
-        <v>18.06000000000005</v>
+        <v>18.06166666666672</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7284,12 +8081,15 @@
         <v>18.1</v>
       </c>
       <c r="F266" t="n">
-        <v>126629.6126</v>
+        <v>18231.98895027</v>
       </c>
       <c r="G266" t="n">
         <v>18.06000000000005</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7298,24 +8098,27 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C267" t="n">
         <v>18.1</v>
       </c>
       <c r="D267" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E267" t="n">
         <v>18.1</v>
       </c>
       <c r="F267" t="n">
-        <v>25356.07021978</v>
+        <v>126629.6126</v>
       </c>
       <c r="G267" t="n">
-        <v>18.05833333333338</v>
+        <v>18.06000000000005</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C268" t="n">
         <v>18.1</v>
       </c>
       <c r="D268" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E268" t="n">
         <v>18.1</v>
       </c>
       <c r="F268" t="n">
-        <v>38504.7981</v>
+        <v>25356.07021978</v>
       </c>
       <c r="G268" t="n">
         <v>18.05833333333338</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7362,12 +8168,15 @@
         <v>18.1</v>
       </c>
       <c r="F269" t="n">
-        <v>4617.2922</v>
+        <v>38504.7981</v>
       </c>
       <c r="G269" t="n">
         <v>18.05833333333338</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7388,12 +8197,15 @@
         <v>18.1</v>
       </c>
       <c r="F270" t="n">
-        <v>11548.5027</v>
+        <v>4617.2922</v>
       </c>
       <c r="G270" t="n">
         <v>18.05833333333338</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7408,18 +8220,21 @@
         <v>18.1</v>
       </c>
       <c r="D271" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E271" t="n">
         <v>18.1</v>
       </c>
       <c r="F271" t="n">
-        <v>309441.7082</v>
+        <v>11548.5027</v>
       </c>
       <c r="G271" t="n">
         <v>18.05833333333338</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7434,18 +8249,21 @@
         <v>18.1</v>
       </c>
       <c r="D272" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E272" t="n">
         <v>18.1</v>
       </c>
       <c r="F272" t="n">
-        <v>50840.4786</v>
+        <v>309441.7082</v>
       </c>
       <c r="G272" t="n">
         <v>18.05833333333338</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,24 +8272,27 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C273" t="n">
         <v>18.1</v>
       </c>
       <c r="D273" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E273" t="n">
         <v>18.1</v>
       </c>
       <c r="F273" t="n">
-        <v>11317.3342</v>
+        <v>50840.4786</v>
       </c>
       <c r="G273" t="n">
         <v>18.05833333333338</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,24 +8301,27 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C274" t="n">
         <v>18.1</v>
       </c>
       <c r="D274" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E274" t="n">
         <v>18.1</v>
       </c>
       <c r="F274" t="n">
-        <v>4631.7592</v>
+        <v>11317.3342</v>
       </c>
       <c r="G274" t="n">
         <v>18.05833333333338</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7506,24 +8330,27 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C275" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D275" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E275" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F275" t="n">
-        <v>160</v>
+        <v>4631.7592</v>
       </c>
       <c r="G275" t="n">
-        <v>18.06166666666671</v>
+        <v>18.05833333333338</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7532,24 +8359,27 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C276" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D276" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E276" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F276" t="n">
-        <v>6276.0043</v>
+        <v>160</v>
       </c>
       <c r="G276" t="n">
-        <v>18.06333333333338</v>
+        <v>18.06166666666671</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7558,24 +8388,27 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C277" t="n">
         <v>18.1</v>
       </c>
       <c r="D277" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E277" t="n">
         <v>18.1</v>
       </c>
       <c r="F277" t="n">
-        <v>16776.3017</v>
+        <v>6276.0043</v>
       </c>
       <c r="G277" t="n">
-        <v>18.06500000000004</v>
+        <v>18.06333333333338</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,24 +8417,27 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C278" t="n">
         <v>18.1</v>
       </c>
       <c r="D278" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E278" t="n">
         <v>18.1</v>
       </c>
       <c r="F278" t="n">
-        <v>240407.0723</v>
+        <v>16776.3017</v>
       </c>
       <c r="G278" t="n">
-        <v>18.06666666666671</v>
+        <v>18.06500000000004</v>
       </c>
       <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7622,12 +8458,15 @@
         <v>18.1</v>
       </c>
       <c r="F279" t="n">
-        <v>85608</v>
+        <v>240407.0723</v>
       </c>
       <c r="G279" t="n">
-        <v>18.07000000000004</v>
+        <v>18.06666666666671</v>
       </c>
       <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7636,24 +8475,27 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C280" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D280" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E280" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F280" t="n">
-        <v>1709.64</v>
+        <v>85608</v>
       </c>
       <c r="G280" t="n">
         <v>18.07000000000004</v>
       </c>
       <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7662,24 +8504,27 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C281" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D281" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E281" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F281" t="n">
-        <v>76300</v>
+        <v>1709.64</v>
       </c>
       <c r="G281" t="n">
-        <v>18.0716666666667</v>
+        <v>18.07000000000004</v>
       </c>
       <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,12 +8545,15 @@
         <v>18.1</v>
       </c>
       <c r="F282" t="n">
-        <v>69000</v>
+        <v>76300</v>
       </c>
       <c r="G282" t="n">
-        <v>18.07333333333337</v>
+        <v>18.0716666666667</v>
       </c>
       <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7726,12 +8574,15 @@
         <v>18.1</v>
       </c>
       <c r="F283" t="n">
-        <v>33</v>
+        <v>69000</v>
       </c>
       <c r="G283" t="n">
-        <v>18.07500000000003</v>
+        <v>18.07333333333337</v>
       </c>
       <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7743,21 +8594,24 @@
         <v>18.1</v>
       </c>
       <c r="C284" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D284" t="n">
         <v>18.1</v>
       </c>
       <c r="E284" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F284" t="n">
-        <v>769.2187</v>
+        <v>33</v>
       </c>
       <c r="G284" t="n">
         <v>18.07500000000003</v>
       </c>
       <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7769,21 +8623,24 @@
         <v>18.1</v>
       </c>
       <c r="C285" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D285" t="n">
         <v>18.1</v>
       </c>
       <c r="E285" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F285" t="n">
-        <v>16574.5856</v>
+        <v>769.2187</v>
       </c>
       <c r="G285" t="n">
-        <v>18.0766666666667</v>
+        <v>18.07500000000003</v>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7792,24 +8649,27 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C286" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D286" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E286" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F286" t="n">
-        <v>56027.58</v>
+        <v>16574.5856</v>
       </c>
       <c r="G286" t="n">
         <v>18.0766666666667</v>
       </c>
       <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7830,12 +8690,15 @@
         <v>18</v>
       </c>
       <c r="F287" t="n">
-        <v>1150.5589</v>
+        <v>56027.58</v>
       </c>
       <c r="G287" t="n">
         <v>18.0766666666667</v>
       </c>
       <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7856,12 +8719,15 @@
         <v>18</v>
       </c>
       <c r="F288" t="n">
-        <v>27191.3057</v>
+        <v>1150.5589</v>
       </c>
       <c r="G288" t="n">
         <v>18.0766666666667</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7870,24 +8736,27 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C289" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D289" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E289" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F289" t="n">
-        <v>10</v>
+        <v>27191.3057</v>
       </c>
       <c r="G289" t="n">
-        <v>18.07833333333337</v>
+        <v>18.0766666666667</v>
       </c>
       <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7908,12 +8777,15 @@
         <v>18.1</v>
       </c>
       <c r="F290" t="n">
-        <v>189.0055</v>
+        <v>10</v>
       </c>
       <c r="G290" t="n">
-        <v>18.08000000000003</v>
+        <v>18.07833333333337</v>
       </c>
       <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7922,24 +8794,27 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C291" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D291" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E291" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F291" t="n">
-        <v>147947.7749</v>
+        <v>189.0055</v>
       </c>
       <c r="G291" t="n">
         <v>18.08000000000003</v>
       </c>
       <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7960,12 +8835,15 @@
         <v>18</v>
       </c>
       <c r="F292" t="n">
-        <v>38.4749</v>
+        <v>147947.7749</v>
       </c>
       <c r="G292" t="n">
         <v>18.08000000000003</v>
       </c>
       <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7974,24 +8852,27 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C293" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D293" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E293" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F293" t="n">
-        <v>18496.9613</v>
+        <v>38.4749</v>
       </c>
       <c r="G293" t="n">
-        <v>18.08333333333336</v>
+        <v>18.08000000000003</v>
       </c>
       <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8012,12 +8893,15 @@
         <v>18.1</v>
       </c>
       <c r="F294" t="n">
-        <v>50510.2486</v>
+        <v>18496.9613</v>
       </c>
       <c r="G294" t="n">
-        <v>18.08500000000003</v>
+        <v>18.08333333333336</v>
       </c>
       <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8026,24 +8910,27 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C295" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D295" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E295" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F295" t="n">
-        <v>2239.2168</v>
+        <v>50510.2486</v>
       </c>
       <c r="G295" t="n">
-        <v>18.08666666666669</v>
+        <v>18.08500000000003</v>
       </c>
       <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8052,544 +8939,27 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C296" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D296" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E296" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F296" t="n">
-        <v>251220.5969</v>
+        <v>2239.2168</v>
       </c>
       <c r="G296" t="n">
-        <v>18.09000000000002</v>
+        <v>18.08666666666669</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C297" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D297" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E297" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F297" t="n">
-        <v>17502.6256</v>
-      </c>
-      <c r="G297" t="n">
-        <v>18.09333333333335</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C298" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D298" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E298" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F298" t="n">
-        <v>4033.5714</v>
-      </c>
-      <c r="G298" t="n">
-        <v>18.09500000000002</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C299" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D299" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E299" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F299" t="n">
-        <v>33640</v>
-      </c>
-      <c r="G299" t="n">
-        <v>18.09666666666668</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>18</v>
-      </c>
-      <c r="C300" t="n">
-        <v>18</v>
-      </c>
-      <c r="D300" t="n">
-        <v>18</v>
-      </c>
-      <c r="E300" t="n">
-        <v>18</v>
-      </c>
-      <c r="F300" t="n">
-        <v>169.4915</v>
-      </c>
-      <c r="G300" t="n">
-        <v>18.09666666666668</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C301" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D301" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E301" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F301" t="n">
-        <v>24856.9649</v>
-      </c>
-      <c r="G301" t="n">
-        <v>18.09833333333335</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C302" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D302" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E302" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F302" t="n">
-        <v>5620</v>
-      </c>
-      <c r="G302" t="n">
-        <v>18.10000000000001</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C303" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E303" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F303" t="n">
-        <v>1090.82872928</v>
-      </c>
-      <c r="G303" t="n">
-        <v>18.10166666666668</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>18</v>
-      </c>
-      <c r="C304" t="n">
-        <v>18</v>
-      </c>
-      <c r="D304" t="n">
-        <v>18</v>
-      </c>
-      <c r="E304" t="n">
-        <v>18</v>
-      </c>
-      <c r="F304" t="n">
-        <v>1668.53</v>
-      </c>
-      <c r="G304" t="n">
-        <v>18.10000000000001</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C305" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D305" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E305" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F305" t="n">
-        <v>27773.8121</v>
-      </c>
-      <c r="G305" t="n">
-        <v>18.10166666666668</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C306" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D306" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E306" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F306" t="n">
-        <v>5602.3756</v>
-      </c>
-      <c r="G306" t="n">
-        <v>18.10166666666668</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C307" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E307" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F307" t="n">
-        <v>91112.67750000001</v>
-      </c>
-      <c r="G307" t="n">
-        <v>18.10000000000001</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C308" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E308" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F308" t="n">
-        <v>27635.9398</v>
-      </c>
-      <c r="G308" t="n">
-        <v>18.09833333333334</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C309" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D309" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E309" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F309" t="n">
-        <v>10989.0109</v>
-      </c>
-      <c r="G309" t="n">
-        <v>18.09833333333334</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C310" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D310" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E310" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F310" t="n">
-        <v>79747.9592</v>
-      </c>
-      <c r="G310" t="n">
-        <v>18.09666666666667</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C311" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D311" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E311" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F311" t="n">
-        <v>80763.6263</v>
-      </c>
-      <c r="G311" t="n">
-        <v>18.09833333333334</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C312" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D312" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E312" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F312" t="n">
-        <v>4560</v>
-      </c>
-      <c r="G312" t="n">
-        <v>18.09666666666667</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C313" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D313" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E313" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F313" t="n">
-        <v>8247.357099999999</v>
-      </c>
-      <c r="G313" t="n">
-        <v>18.09833333333334</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C314" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D314" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E314" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F314" t="n">
-        <v>35</v>
-      </c>
-      <c r="G314" t="n">
-        <v>18.09833333333334</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C315" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D315" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E315" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F315" t="n">
-        <v>147178.8986</v>
-      </c>
-      <c r="G315" t="n">
-        <v>18.09666666666667</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C316" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D316" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E316" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F316" t="n">
-        <v>7060.6499</v>
-      </c>
-      <c r="G316" t="n">
-        <v>18.095</v>
-      </c>
-      <c r="H316" t="n">
+      <c r="I296" t="n">
         <v>0</v>
       </c>
     </row>
